--- a/source_data/Qual_9_data.xlsx
+++ b/source_data/Qual_9_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingyan.hu\Downloads\Step2_MinSetStaticCopy_reformat&amp;upload\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonzalezmorales\projects\gender_data_portal\source_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361C33C6-14DC-47A3-83F3-42880F97CBA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18B02E5-B449-494B-95D6-B4128C7A2DEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="9 - Existence of laws on domest" sheetId="1" r:id="rId1"/>
@@ -629,12 +629,6 @@
     <t>Existence of laws on sexual harassment</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>ISO3</t>
   </si>
   <si>
@@ -1197,6 +1191,12 @@
   </si>
   <si>
     <t>MINSET_SERIES_DESC</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -2055,7 +2055,7 @@
   <dimension ref="A1:O501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2079,49 +2079,49 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -2150,7 +2150,7 @@
         <v>94</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J2" s="1">
         <v>15.220526120000001</v>
@@ -2197,7 +2197,7 @@
         <v>94</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J3" s="1">
         <v>-5.5526900159999997</v>
@@ -2244,7 +2244,7 @@
         <v>94</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J4" s="1">
         <v>38.110742889999997</v>
@@ -2291,7 +2291,7 @@
         <v>94</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="J5" s="1">
         <v>39.635052960000003</v>
@@ -2338,7 +2338,7 @@
         <v>94</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J6" s="1">
         <v>11.787277469999999</v>
@@ -2385,7 +2385,7 @@
         <v>94</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J7" s="1">
         <v>9.4001678769999995</v>
@@ -2432,7 +2432,7 @@
         <v>94</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J8" s="1">
         <v>10.46535826</v>
@@ -2479,7 +2479,7 @@
         <v>94</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="J9" s="1">
         <v>-15.39944785</v>
@@ -2526,7 +2526,7 @@
         <v>94</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J10" s="1">
         <v>-14.40182514</v>
@@ -2570,10 +2570,10 @@
         <v>187</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="J11" s="1">
         <v>66.653591590000005</v>
@@ -2617,10 +2617,10 @@
         <v>45</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J12" s="1">
         <v>26.424618760000001</v>
@@ -2667,7 +2667,7 @@
         <v>94</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="J13" s="1">
         <v>38.184799409999997</v>
@@ -2711,10 +2711,10 @@
         <v>83</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J14" s="1">
         <v>166.92312999999999</v>
@@ -2758,10 +2758,10 @@
         <v>88</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J15" s="1">
         <v>134.57338780000001</v>
@@ -2808,7 +2808,7 @@
         <v>94</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="J16" s="1">
         <v>6.6097722650000001</v>
@@ -2852,10 +2852,10 @@
         <v>141</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J17" s="1">
         <v>29.956501589999998</v>
@@ -2899,10 +2899,10 @@
         <v>1</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J18" s="1">
         <v>66.026881979999999</v>
@@ -2949,7 +2949,7 @@
         <v>94</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J19" s="1">
         <v>29.890809919999999</v>
@@ -2996,7 +2996,7 @@
         <v>94</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J20" s="1">
         <v>18.666184009999998</v>
@@ -3040,10 +3040,10 @@
         <v>50</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J21" s="1">
         <v>7.4242148139999999</v>
@@ -3087,10 +3087,10 @@
         <v>73</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J22" s="1">
         <v>2.6781642269999999</v>
@@ -3134,10 +3134,10 @@
         <v>184</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="J23" s="1">
         <v>44.938393169999998</v>
@@ -3181,10 +3181,10 @@
         <v>193</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="J24" s="1">
         <v>50.5490754</v>
@@ -3231,7 +3231,7 @@
         <v>94</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J25" s="1">
         <v>2.3399335940000001</v>
@@ -3278,7 +3278,7 @@
         <v>94</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J26" s="1">
         <v>-1.7428438289999999</v>
@@ -3325,7 +3325,7 @@
         <v>94</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J27" s="1">
         <v>12.741982699999999</v>
@@ -3372,7 +3372,7 @@
         <v>147</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="J28" s="1">
         <v>-79.544601439999994</v>
@@ -3419,7 +3419,7 @@
         <v>94</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J29" s="1">
         <v>-11.28173419</v>
@@ -3466,7 +3466,7 @@
         <v>147</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="J30" s="1">
         <v>-72.336409579999994</v>
@@ -3510,10 +3510,10 @@
         <v>39</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J31" s="1">
         <v>19.412215190000001</v>
@@ -3560,7 +3560,7 @@
         <v>94</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J32" s="1">
         <v>-9.3118790380000007</v>
@@ -3604,10 +3604,10 @@
         <v>74</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J33" s="1">
         <v>18.029598499999999</v>
@@ -3651,10 +3651,10 @@
         <v>14</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J34" s="1">
         <v>73.096725460000002</v>
@@ -3701,7 +3701,7 @@
         <v>94</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J35" s="1">
         <v>-3.5220160389999999</v>
@@ -3748,7 +3748,7 @@
         <v>147</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="J36" s="1">
         <v>-85.030603150000005</v>
@@ -3792,10 +3792,10 @@
         <v>60</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J37" s="1">
         <v>99.014049259999993</v>
@@ -3842,7 +3842,7 @@
         <v>94</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J38" s="1">
         <v>0.97835764999999997</v>
@@ -3886,10 +3886,10 @@
         <v>77</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J39" s="1">
         <v>9.5727374110000003</v>
@@ -3936,7 +3936,7 @@
         <v>94</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J40" s="1">
         <v>34.805211819999997</v>
@@ -3983,7 +3983,7 @@
         <v>94</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J41" s="1">
         <v>27.850328999999999</v>
@@ -4027,10 +4027,10 @@
         <v>81</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J42" s="1">
         <v>-157.5643005</v>
@@ -4074,10 +4074,10 @@
         <v>87</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J43" s="1">
         <v>171.0839119</v>
@@ -4121,10 +4121,10 @@
         <v>85</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="J44" s="1">
         <v>158.22521599999999</v>
@@ -4168,10 +4168,10 @@
         <v>89</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J45" s="1">
         <v>145.8587761</v>
@@ -4215,10 +4215,10 @@
         <v>92</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J46" s="1">
         <v>178.66796110000001</v>
@@ -4262,10 +4262,10 @@
         <v>84</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J47" s="1">
         <v>167.06797789999999</v>
@@ -4312,7 +4312,7 @@
         <v>94</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J48" s="1">
         <v>43.342345649999999</v>
@@ -4356,10 +4356,10 @@
         <v>194</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J49" s="1">
         <v>35.256941220000002</v>
@@ -4406,7 +4406,7 @@
         <v>94</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J50" s="1">
         <v>17.578170620000002</v>
@@ -4450,10 +4450,10 @@
         <v>183</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="J51" s="1">
         <v>50.010647249999998</v>
@@ -4497,10 +4497,10 @@
         <v>28</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J52" s="1">
         <v>28.04940161</v>
@@ -4544,10 +4544,10 @@
         <v>7</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J53" s="1">
         <v>90.450984840000004</v>
@@ -4588,13 +4588,13 @@
         <v>748</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>94</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J54" s="1">
         <v>31.501492880000001</v>
@@ -4641,7 +4641,7 @@
         <v>94</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="J55" s="1">
         <v>37.860968159999999</v>
@@ -4688,7 +4688,7 @@
         <v>94</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J56" s="1">
         <v>28.253621949999999</v>
@@ -4735,7 +4735,7 @@
         <v>94</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="J57" s="1">
         <v>8.0973632559999995</v>
@@ -4779,10 +4779,10 @@
         <v>18</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J58" s="1">
         <v>68.804796839999995</v>
@@ -4826,10 +4826,10 @@
         <v>93</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J59" s="1">
         <v>-172.4430749</v>
@@ -4873,10 +4873,10 @@
         <v>190</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="J60" s="1">
         <v>69.294998000000007</v>
@@ -4920,10 +4920,10 @@
         <v>192</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J61" s="1">
         <v>63.119445579999997</v>
@@ -4970,7 +4970,7 @@
         <v>94</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J62" s="1">
         <v>23.654965069999999</v>
@@ -5017,7 +5017,7 @@
         <v>94</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="J63" s="1">
         <v>42.182747069999998</v>
@@ -5061,10 +5061,10 @@
         <v>47</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J64" s="1">
         <v>23.905178070000002</v>
@@ -5111,7 +5111,7 @@
         <v>94</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J65" s="1">
         <v>-10.33187259</v>
@@ -5155,10 +5155,10 @@
         <v>76</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J66" s="1">
         <v>-6.2819428410000002</v>
@@ -5202,10 +5202,10 @@
         <v>79</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J67" s="1">
         <v>160.15841169999999</v>
@@ -5249,10 +5249,10 @@
         <v>191</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J68" s="1">
         <v>58.978766499999999</v>
@@ -5296,10 +5296,10 @@
         <v>90</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="J69" s="1">
         <v>-175.19599909999999</v>
@@ -5343,10 +5343,10 @@
         <v>20</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J70" s="1">
         <v>20.066609280000002</v>
@@ -5387,10 +5387,10 @@
         <v>21</v>
       </c>
       <c r="H71" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I71" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="J71" s="1">
         <v>1.5762574170000001</v>
@@ -5434,7 +5434,7 @@
         <v>147</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="J72" s="1">
         <v>-61.799975500000002</v>
@@ -5478,7 +5478,7 @@
         <v>147</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J73" s="1">
         <v>-65.145632739999996</v>
@@ -5519,10 +5519,10 @@
         <v>23</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J74" s="1">
         <v>134.34994119999999</v>
@@ -5563,10 +5563,10 @@
         <v>24</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J75" s="1">
         <v>14.141724719999999</v>
@@ -5610,7 +5610,7 @@
         <v>147</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J76" s="1">
         <v>-78.051116629999996</v>
@@ -5651,10 +5651,10 @@
         <v>5</v>
       </c>
       <c r="H77" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I77" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="J77" s="1">
         <v>89.176607880000006</v>
@@ -5698,7 +5698,7 @@
         <v>147</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J78" s="1">
         <v>-59.534648900000001</v>
@@ -5739,10 +5739,10 @@
         <v>25</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J79" s="1">
         <v>4.6609764560000002</v>
@@ -5786,7 +5786,7 @@
         <v>147</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J80" s="1">
         <v>-88.701995539999999</v>
@@ -5830,7 +5830,7 @@
         <v>147</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="J81" s="1">
         <v>-64.662242840000005</v>
@@ -5871,10 +5871,10 @@
         <v>26</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J82" s="1">
         <v>17.785843320000001</v>
@@ -5918,7 +5918,7 @@
         <v>94</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J83" s="1">
         <v>23.81380223</v>
@@ -5962,7 +5962,7 @@
         <v>147</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J84" s="1">
         <v>-53.08432878</v>
@@ -6003,10 +6003,10 @@
         <v>27</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J85" s="1">
         <v>25.237631530000002</v>
@@ -6050,7 +6050,7 @@
         <v>94</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J86" s="1">
         <v>-23.63544151</v>
@@ -6091,10 +6091,10 @@
         <v>30</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J87" s="1">
         <v>-101.6575058</v>
@@ -6138,7 +6138,7 @@
         <v>94</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="J88" s="1">
         <v>20.93559492</v>
@@ -6182,7 +6182,7 @@
         <v>147</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J89" s="1">
         <v>-71.230290190000005</v>
@@ -6226,7 +6226,7 @@
         <v>147</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="J90" s="1">
         <v>-73.074467510000005</v>
@@ -6270,7 +6270,7 @@
         <v>147</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J91" s="1">
         <v>-84.197127820000006</v>
@@ -6311,10 +6311,10 @@
         <v>31</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J92" s="1">
         <v>17.958745530000002</v>
@@ -6355,10 +6355,10 @@
         <v>32</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J93" s="1">
         <v>33.222859640000003</v>
@@ -6396,13 +6396,13 @@
         <v>203</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J94" s="1">
         <v>15.33151382</v>
@@ -6443,10 +6443,10 @@
         <v>33</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J95" s="1">
         <v>9.3265712829999998</v>
@@ -6490,7 +6490,7 @@
         <v>147</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J96" s="1">
         <v>-61.349375600000002</v>
@@ -6534,7 +6534,7 @@
         <v>147</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="J97" s="1">
         <v>-70.498475760000005</v>
@@ -6578,7 +6578,7 @@
         <v>147</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="J98" s="1">
         <v>-78.37005241</v>
@@ -6619,10 +6619,10 @@
         <v>78</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J99" s="1">
         <v>29.774685340000001</v>
@@ -6666,7 +6666,7 @@
         <v>147</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J100" s="1">
         <v>-88.868629949999999</v>
@@ -6707,10 +6707,10 @@
         <v>34</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J101" s="1">
         <v>25.84093481</v>
@@ -6751,10 +6751,10 @@
         <v>80</v>
       </c>
       <c r="H102" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I102" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="J102" s="1">
         <v>177.96608839999999</v>
@@ -6795,10 +6795,10 @@
         <v>35</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J103" s="1">
         <v>23.308447000000001</v>
@@ -6839,10 +6839,10 @@
         <v>36</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J104" s="1">
         <v>2.4572881290000002</v>
@@ -6883,10 +6883,10 @@
         <v>185</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J105" s="1">
         <v>43.371361499999999</v>
@@ -6927,10 +6927,10 @@
         <v>37</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J106" s="1">
         <v>10.3806066</v>
@@ -6974,7 +6974,7 @@
         <v>94</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J107" s="1">
         <v>-1.205623522</v>
@@ -7015,10 +7015,10 @@
         <v>38</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J108" s="1">
         <v>22.583078270000001</v>
@@ -7062,7 +7062,7 @@
         <v>147</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="J109" s="1">
         <v>-61.682485679999999</v>
@@ -7106,7 +7106,7 @@
         <v>147</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="J110" s="1">
         <v>-91.231274600000006</v>
@@ -7150,7 +7150,7 @@
         <v>147</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="J111" s="1">
         <v>-58.97322037</v>
@@ -7194,7 +7194,7 @@
         <v>147</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J112" s="1">
         <v>-86.599743810000007</v>
@@ -7235,10 +7235,10 @@
         <v>40</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J113" s="1">
         <v>-19.021169660000002</v>
@@ -7279,10 +7279,10 @@
         <v>11</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J114" s="1">
         <v>79.3608464</v>
@@ -7323,10 +7323,10 @@
         <v>12</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J115" s="1">
         <v>54.197663480000003</v>
@@ -7367,10 +7367,10 @@
         <v>41</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J116" s="1">
         <v>-7.1214252719999998</v>
@@ -7411,10 +7411,10 @@
         <v>42</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J117" s="1">
         <v>34.622779919999999</v>
@@ -7455,10 +7455,10 @@
         <v>43</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J118" s="1">
         <v>12.570224270000001</v>
@@ -7502,7 +7502,7 @@
         <v>147</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="J119" s="1">
         <v>-77.310684089999995</v>
@@ -7543,10 +7543,10 @@
         <v>44</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J120" s="1">
         <v>139.27161029999999</v>
@@ -7587,10 +7587,10 @@
         <v>188</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J121" s="1">
         <v>74.523248390000006</v>
@@ -7631,10 +7631,10 @@
         <v>46</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J122" s="1">
         <v>9.5529850189999994</v>
@@ -7675,10 +7675,10 @@
         <v>48</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J123" s="1">
         <v>6.0926565630000002</v>
@@ -7722,7 +7722,7 @@
         <v>94</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="J124" s="1">
         <v>46.698233899999998</v>
@@ -7766,7 +7766,7 @@
         <v>94</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J125" s="1">
         <v>33.488462499999997</v>
@@ -7807,10 +7807,10 @@
         <v>49</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J126" s="1">
         <v>14.44617519</v>
@@ -7854,7 +7854,7 @@
         <v>94</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J127" s="1">
         <v>57.568021999999999</v>
@@ -7898,7 +7898,7 @@
         <v>147</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="J128" s="1">
         <v>-102.5148166</v>
@@ -7939,10 +7939,10 @@
         <v>52</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J129" s="1">
         <v>19.252140239999999</v>
@@ -7986,7 +7986,7 @@
         <v>94</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J130" s="1">
         <v>17.219078849999999</v>
@@ -8027,10 +8027,10 @@
         <v>16</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J131" s="1">
         <v>83.94678863</v>
@@ -8071,10 +8071,10 @@
         <v>53</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J132" s="1">
         <v>5.3314805679999999</v>
@@ -8115,10 +8115,10 @@
         <v>54</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J133" s="1">
         <v>170.47556729999999</v>
@@ -8159,10 +8159,10 @@
         <v>69</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J134" s="1">
         <v>21.700790900000001</v>
@@ -8203,10 +8203,10 @@
         <v>55</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J135" s="1">
         <v>11.47846389</v>
@@ -8250,7 +8250,7 @@
         <v>147</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="J136" s="1">
         <v>-81.266166229999996</v>
@@ -8294,7 +8294,7 @@
         <v>147</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="J137" s="1">
         <v>-60.548542249999997</v>
@@ -8338,7 +8338,7 @@
         <v>147</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J138" s="1">
         <v>-71.820932769999999</v>
@@ -8379,10 +8379,10 @@
         <v>56</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J139" s="1">
         <v>19.40660158</v>
@@ -8423,10 +8423,10 @@
         <v>57</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J140" s="1">
         <v>-7.9615998110000001</v>
@@ -8467,10 +8467,10 @@
         <v>51</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J141" s="1">
         <v>28.465062400000001</v>
@@ -8511,10 +8511,10 @@
         <v>59</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J142" s="1">
         <v>24.98481009</v>
@@ -8558,7 +8558,7 @@
         <v>94</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J143" s="1">
         <v>29.923101939999999</v>
@@ -8602,7 +8602,7 @@
         <v>147</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="J144" s="1">
         <v>-62.766286129999997</v>
@@ -8646,7 +8646,7 @@
         <v>147</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="J145" s="1">
         <v>-60.965295529999999</v>
@@ -8690,7 +8690,7 @@
         <v>147</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="J146" s="1">
         <v>-61.190243209999998</v>
@@ -8731,10 +8731,10 @@
         <v>61</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J147" s="1">
         <v>12.46329038</v>
@@ -8778,7 +8778,7 @@
         <v>94</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J148" s="1">
         <v>-14.46636926</v>
@@ -8819,10 +8819,10 @@
         <v>62</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J149" s="1">
         <v>20.805876000000001</v>
@@ -8866,7 +8866,7 @@
         <v>94</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="J150" s="1">
         <v>55.465615909999997</v>
@@ -8910,7 +8910,7 @@
         <v>94</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J151" s="1">
         <v>-11.783065840000001</v>
@@ -8951,10 +8951,10 @@
         <v>63</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J152" s="1">
         <v>19.48495604</v>
@@ -8995,10 +8995,10 @@
         <v>64</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J153" s="1">
         <v>14.82209486</v>
@@ -9042,7 +9042,7 @@
         <v>94</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J154" s="1">
         <v>46.203674769999999</v>
@@ -9086,7 +9086,7 @@
         <v>94</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J155" s="1">
         <v>24.671843549999998</v>
@@ -9127,10 +9127,10 @@
         <v>65</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J156" s="1">
         <v>-3.5540782960000001</v>
@@ -9171,10 +9171,10 @@
         <v>9</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J157" s="1">
         <v>80.704896539999993</v>
@@ -9218,7 +9218,7 @@
         <v>147</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="J158" s="1">
         <v>-55.906263940000002</v>
@@ -9259,10 +9259,10 @@
         <v>66</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J159" s="1">
         <v>14.3775338</v>
@@ -9303,10 +9303,10 @@
         <v>67</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J160" s="1">
         <v>8.2231579999999997</v>
@@ -9350,7 +9350,7 @@
         <v>147</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="J161" s="1">
         <v>-61.293895040000002</v>
@@ -9394,7 +9394,7 @@
         <v>94</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J162" s="1">
         <v>32.391004379999998</v>
@@ -9435,10 +9435,10 @@
         <v>68</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J163" s="1">
         <v>31.402708019999999</v>
@@ -9479,10 +9479,10 @@
         <v>70</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J164" s="1">
         <v>-2.2383053899999998</v>
@@ -9523,10 +9523,10 @@
         <v>71</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J165" s="1">
         <v>-99.138303109999995</v>
@@ -9570,7 +9570,7 @@
         <v>147</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J166" s="1">
         <v>-56.013870249999997</v>
@@ -9614,7 +9614,7 @@
         <v>147</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="J167" s="1">
         <v>-66.156420839999996</v>
@@ -9658,7 +9658,7 @@
         <v>94</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="J168" s="1">
         <v>29.86909584</v>
@@ -9702,7 +9702,7 @@
         <v>94</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J169" s="1">
         <v>-1.7428438289999999</v>
@@ -9749,7 +9749,7 @@
         <v>94</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J170" s="1">
         <v>43.342345649999999</v>
@@ -9796,7 +9796,7 @@
         <v>94</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="J171" s="1">
         <v>42.182747069999998</v>
@@ -9843,7 +9843,7 @@
         <v>94</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J172" s="1">
         <v>10.46535826</v>
@@ -9890,7 +9890,7 @@
         <v>94</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="J173" s="1">
         <v>-15.39944785</v>
@@ -9937,7 +9937,7 @@
         <v>94</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J174" s="1">
         <v>9.4001678769999995</v>
@@ -9984,7 +9984,7 @@
         <v>94</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J175" s="1">
         <v>11.787277469999999</v>
@@ -10028,10 +10028,10 @@
         <v>21</v>
       </c>
       <c r="H176" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I176" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="I176" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="J176" s="1">
         <v>1.5762574170000001</v>
@@ -10075,10 +10075,10 @@
         <v>57</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J177" s="1">
         <v>-7.9615998110000001</v>
@@ -10122,10 +10122,10 @@
         <v>184</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="J178" s="1">
         <v>44.938393169999998</v>
@@ -10172,7 +10172,7 @@
         <v>94</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J179" s="1">
         <v>15.220526120000001</v>
@@ -10219,7 +10219,7 @@
         <v>147</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J180" s="1">
         <v>-61.349375600000002</v>
@@ -10266,7 +10266,7 @@
         <v>94</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J181" s="1">
         <v>38.110742889999997</v>
@@ -10313,7 +10313,7 @@
         <v>94</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J182" s="1">
         <v>-1.205623522</v>
@@ -10357,10 +10357,10 @@
         <v>18</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J183" s="1">
         <v>68.804796839999995</v>
@@ -10404,10 +10404,10 @@
         <v>88</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J184" s="1">
         <v>134.57338780000001</v>
@@ -10454,7 +10454,7 @@
         <v>147</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="J185" s="1">
         <v>-61.799975500000002</v>
@@ -10501,7 +10501,7 @@
         <v>147</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J186" s="1">
         <v>-65.145632739999996</v>
@@ -10545,10 +10545,10 @@
         <v>23</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J187" s="1">
         <v>134.34994119999999</v>
@@ -10592,10 +10592,10 @@
         <v>7</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J188" s="1">
         <v>90.450984840000004</v>
@@ -10639,10 +10639,10 @@
         <v>26</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J189" s="1">
         <v>17.785843320000001</v>
@@ -10689,7 +10689,7 @@
         <v>147</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J190" s="1">
         <v>-53.08432878</v>
@@ -10733,10 +10733,10 @@
         <v>27</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J191" s="1">
         <v>25.237631530000002</v>
@@ -10783,7 +10783,7 @@
         <v>94</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J192" s="1">
         <v>29.890809919999999</v>
@@ -10830,7 +10830,7 @@
         <v>94</v>
       </c>
       <c r="I193" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J193" s="1">
         <v>-23.63544151</v>
@@ -10874,10 +10874,10 @@
         <v>30</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I194" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J194" s="1">
         <v>-101.6575058</v>
@@ -10924,7 +10924,7 @@
         <v>147</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J195" s="1">
         <v>-71.230290190000005</v>
@@ -10971,7 +10971,7 @@
         <v>147</v>
       </c>
       <c r="I196" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J196" s="1">
         <v>-84.197127820000006</v>
@@ -11018,7 +11018,7 @@
         <v>147</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="J197" s="1">
         <v>-79.544601439999994</v>
@@ -11062,10 +11062,10 @@
         <v>33</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J198" s="1">
         <v>9.3265712829999998</v>
@@ -11112,7 +11112,7 @@
         <v>147</v>
       </c>
       <c r="I199" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J199" s="1">
         <v>-88.868629949999999</v>
@@ -11156,10 +11156,10 @@
         <v>34</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I200" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J200" s="1">
         <v>25.84093481</v>
@@ -11203,10 +11203,10 @@
         <v>36</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I201" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J201" s="1">
         <v>2.4572881290000002</v>
@@ -11250,10 +11250,10 @@
         <v>185</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I202" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J202" s="1">
         <v>43.371361499999999</v>
@@ -11297,10 +11297,10 @@
         <v>37</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I203" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J203" s="1">
         <v>10.3806066</v>
@@ -11347,7 +11347,7 @@
         <v>147</v>
       </c>
       <c r="I204" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="J204" s="1">
         <v>-58.97322037</v>
@@ -11394,7 +11394,7 @@
         <v>147</v>
       </c>
       <c r="I205" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J205" s="1">
         <v>-86.599743810000007</v>
@@ -11438,10 +11438,10 @@
         <v>40</v>
       </c>
       <c r="H206" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I206" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J206" s="1">
         <v>-19.021169660000002</v>
@@ -11485,10 +11485,10 @@
         <v>43</v>
       </c>
       <c r="H207" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I207" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J207" s="1">
         <v>12.570224270000001</v>
@@ -11535,7 +11535,7 @@
         <v>147</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="J208" s="1">
         <v>-77.310684089999995</v>
@@ -11582,7 +11582,7 @@
         <v>94</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="J209" s="1">
         <v>37.860968159999999</v>
@@ -11626,10 +11626,10 @@
         <v>46</v>
       </c>
       <c r="H210" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J210" s="1">
         <v>9.5529850189999994</v>
@@ -11673,10 +11673,10 @@
         <v>48</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J211" s="1">
         <v>6.0926565630000002</v>
@@ -11720,10 +11720,10 @@
         <v>49</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J212" s="1">
         <v>14.44617519</v>
@@ -11767,10 +11767,10 @@
         <v>87</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I213" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J213" s="1">
         <v>171.0839119</v>
@@ -11817,7 +11817,7 @@
         <v>94</v>
       </c>
       <c r="I214" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J214" s="1">
         <v>57.568021999999999</v>
@@ -11861,10 +11861,10 @@
         <v>50</v>
       </c>
       <c r="H215" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I215" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J215" s="1">
         <v>7.4242148139999999</v>
@@ -11908,10 +11908,10 @@
         <v>52</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I216" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J216" s="1">
         <v>19.252140239999999</v>
@@ -11955,10 +11955,10 @@
         <v>83</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I217" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J217" s="1">
         <v>166.92312999999999</v>
@@ -12002,10 +12002,10 @@
         <v>16</v>
       </c>
       <c r="H218" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I218" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J218" s="1">
         <v>83.94678863</v>
@@ -12049,10 +12049,10 @@
         <v>53</v>
       </c>
       <c r="H219" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I219" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J219" s="1">
         <v>5.3314805679999999</v>
@@ -12096,10 +12096,10 @@
         <v>54</v>
       </c>
       <c r="H220" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I220" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J220" s="1">
         <v>170.47556729999999</v>
@@ -12146,7 +12146,7 @@
         <v>147</v>
       </c>
       <c r="I221" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="J221" s="1">
         <v>-85.030603150000005</v>
@@ -12190,10 +12190,10 @@
         <v>69</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I222" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J222" s="1">
         <v>21.700790900000001</v>
@@ -12237,10 +12237,10 @@
         <v>55</v>
       </c>
       <c r="H223" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I223" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J223" s="1">
         <v>11.47846389</v>
@@ -12287,7 +12287,7 @@
         <v>147</v>
       </c>
       <c r="I224" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="J224" s="1">
         <v>-81.266166229999996</v>
@@ -12331,10 +12331,10 @@
         <v>89</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I225" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J225" s="1">
         <v>145.8587761</v>
@@ -12381,7 +12381,7 @@
         <v>147</v>
       </c>
       <c r="I226" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J226" s="1">
         <v>-71.820932769999999</v>
@@ -12425,10 +12425,10 @@
         <v>51</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I227" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J227" s="1">
         <v>28.465062400000001</v>
@@ -12475,7 +12475,7 @@
         <v>147</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="J228" s="1">
         <v>-62.766286129999997</v>
@@ -12522,7 +12522,7 @@
         <v>147</v>
       </c>
       <c r="I229" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="J229" s="1">
         <v>-61.190243209999998</v>
@@ -12566,10 +12566,10 @@
         <v>93</v>
       </c>
       <c r="H230" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J230" s="1">
         <v>-172.4430749</v>
@@ -12613,10 +12613,10 @@
         <v>61</v>
       </c>
       <c r="H231" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J231" s="1">
         <v>12.46329038</v>
@@ -12663,7 +12663,7 @@
         <v>94</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J232" s="1">
         <v>-14.46636926</v>
@@ -12707,10 +12707,10 @@
         <v>62</v>
       </c>
       <c r="H233" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J233" s="1">
         <v>20.805876000000001</v>
@@ -12754,10 +12754,10 @@
         <v>63</v>
       </c>
       <c r="H234" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J234" s="1">
         <v>19.48495604</v>
@@ -12801,10 +12801,10 @@
         <v>65</v>
       </c>
       <c r="H235" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I235" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J235" s="1">
         <v>-3.5540782960000001</v>
@@ -12848,10 +12848,10 @@
         <v>141</v>
       </c>
       <c r="H236" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J236" s="1">
         <v>29.956501589999998</v>
@@ -12898,7 +12898,7 @@
         <v>147</v>
       </c>
       <c r="I237" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="J237" s="1">
         <v>-55.906263940000002</v>
@@ -12942,10 +12942,10 @@
         <v>66</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I238" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J238" s="1">
         <v>14.3775338</v>
@@ -12992,7 +12992,7 @@
         <v>147</v>
       </c>
       <c r="I239" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="J239" s="1">
         <v>-61.293895040000002</v>
@@ -13036,10 +13036,10 @@
         <v>70</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I240" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J240" s="1">
         <v>-2.2383053899999998</v>
@@ -13086,7 +13086,7 @@
         <v>147</v>
       </c>
       <c r="I241" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="J241" s="1">
         <v>-66.156420839999996</v>
@@ -13133,7 +13133,7 @@
         <v>94</v>
       </c>
       <c r="I242" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="J242" s="1">
         <v>29.86909584</v>
@@ -13177,10 +13177,10 @@
         <v>74</v>
       </c>
       <c r="H243" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I243" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J243" s="1">
         <v>18.029598499999999</v>
@@ -13224,10 +13224,10 @@
         <v>20</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I244" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J244" s="1">
         <v>20.066609280000002</v>
@@ -13271,10 +13271,10 @@
         <v>73</v>
       </c>
       <c r="H245" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I245" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J245" s="1">
         <v>2.6781642269999999</v>
@@ -13321,7 +13321,7 @@
         <v>94</v>
       </c>
       <c r="I246" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J246" s="1">
         <v>17.578170620000002</v>
@@ -13365,10 +13365,10 @@
         <v>193</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I247" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="J247" s="1">
         <v>50.5490754</v>
@@ -13415,7 +13415,7 @@
         <v>94</v>
       </c>
       <c r="I248" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J248" s="1">
         <v>2.3399335940000001</v>
@@ -13462,7 +13462,7 @@
         <v>94</v>
       </c>
       <c r="I249" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J249" s="1">
         <v>23.81380223</v>
@@ -13509,7 +13509,7 @@
         <v>94</v>
       </c>
       <c r="I250" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J250" s="1">
         <v>12.741982699999999</v>
@@ -13553,10 +13553,10 @@
         <v>78</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I251" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J251" s="1">
         <v>29.774685340000001</v>
@@ -13603,7 +13603,7 @@
         <v>94</v>
       </c>
       <c r="I252" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J252" s="1">
         <v>-11.28173419</v>
@@ -13650,7 +13650,7 @@
         <v>147</v>
       </c>
       <c r="I253" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="J253" s="1">
         <v>-72.336409579999994</v>
@@ -13694,10 +13694,10 @@
         <v>39</v>
       </c>
       <c r="H254" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I254" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J254" s="1">
         <v>19.412215190000001</v>
@@ -13741,10 +13741,10 @@
         <v>11</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I255" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J255" s="1">
         <v>79.3608464</v>
@@ -13788,10 +13788,10 @@
         <v>44</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I256" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J256" s="1">
         <v>139.27161029999999</v>
@@ -13835,10 +13835,10 @@
         <v>45</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I257" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J257" s="1">
         <v>26.424618760000001</v>
@@ -13885,7 +13885,7 @@
         <v>94</v>
       </c>
       <c r="I258" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="J258" s="1">
         <v>46.698233899999998</v>
@@ -13932,7 +13932,7 @@
         <v>94</v>
       </c>
       <c r="I259" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J259" s="1">
         <v>33.488462499999997</v>
@@ -13979,7 +13979,7 @@
         <v>94</v>
       </c>
       <c r="I260" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J260" s="1">
         <v>-3.5220160389999999</v>
@@ -14023,10 +14023,10 @@
         <v>76</v>
       </c>
       <c r="H261" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I261" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J261" s="1">
         <v>-6.2819428410000002</v>
@@ -14073,7 +14073,7 @@
         <v>94</v>
       </c>
       <c r="I262" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="J262" s="1">
         <v>38.184799409999997</v>
@@ -14117,10 +14117,10 @@
         <v>56</v>
       </c>
       <c r="H263" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I263" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J263" s="1">
         <v>19.40660158</v>
@@ -14164,10 +14164,10 @@
         <v>60</v>
       </c>
       <c r="H264" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I264" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J264" s="1">
         <v>99.014049259999993</v>
@@ -14211,10 +14211,10 @@
         <v>9</v>
       </c>
       <c r="H265" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I265" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J265" s="1">
         <v>80.704896539999993</v>
@@ -14261,7 +14261,7 @@
         <v>94</v>
       </c>
       <c r="I266" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J266" s="1">
         <v>0.97835764999999997</v>
@@ -14305,10 +14305,10 @@
         <v>77</v>
       </c>
       <c r="H267" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I267" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J267" s="1">
         <v>9.5727374110000003</v>
@@ -14352,10 +14352,10 @@
         <v>92</v>
       </c>
       <c r="H268" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I268" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J268" s="1">
         <v>178.66796110000001</v>
@@ -14402,7 +14402,7 @@
         <v>147</v>
       </c>
       <c r="I269" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J269" s="1">
         <v>-56.013870249999997</v>
@@ -14446,10 +14446,10 @@
         <v>192</v>
       </c>
       <c r="H270" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I270" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J270" s="1">
         <v>63.119445579999997</v>
@@ -14496,7 +14496,7 @@
         <v>94</v>
       </c>
       <c r="I271" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J271" s="1">
         <v>27.850328999999999</v>
@@ -14540,10 +14540,10 @@
         <v>1</v>
       </c>
       <c r="H272" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I272" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J272" s="1">
         <v>66.026881979999999</v>
@@ -14590,7 +14590,7 @@
         <v>94</v>
       </c>
       <c r="I273" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J273" s="1">
         <v>18.666184009999998</v>
@@ -14637,7 +14637,7 @@
         <v>94</v>
       </c>
       <c r="I274" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J274" s="1">
         <v>-11.783065840000001</v>
@@ -14684,7 +14684,7 @@
         <v>94</v>
       </c>
       <c r="I275" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J275" s="1">
         <v>32.391004379999998</v>
@@ -14728,10 +14728,10 @@
         <v>183</v>
       </c>
       <c r="H276" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I276" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="J276" s="1">
         <v>50.010647249999998</v>
@@ -14778,7 +14778,7 @@
         <v>147</v>
       </c>
       <c r="I277" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="J277" s="1">
         <v>-64.662242840000005</v>
@@ -14825,7 +14825,7 @@
         <v>94</v>
       </c>
       <c r="I278" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="J278" s="1">
         <v>20.93559492</v>
@@ -14872,7 +14872,7 @@
         <v>147</v>
       </c>
       <c r="I279" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="J279" s="1">
         <v>-73.074467510000005</v>
@@ -14919,7 +14919,7 @@
         <v>147</v>
       </c>
       <c r="I280" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="J280" s="1">
         <v>-78.37005241</v>
@@ -14960,13 +14960,13 @@
         <v>748</v>
       </c>
       <c r="G281" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H281" s="1" t="s">
         <v>94</v>
       </c>
       <c r="I281" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J281" s="1">
         <v>31.501492880000001</v>
@@ -15010,10 +15010,10 @@
         <v>80</v>
       </c>
       <c r="H282" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I282" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="I282" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="J282" s="1">
         <v>177.96608839999999</v>
@@ -15060,7 +15060,7 @@
         <v>147</v>
       </c>
       <c r="I283" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="J283" s="1">
         <v>-61.682485679999999</v>
@@ -15107,7 +15107,7 @@
         <v>147</v>
       </c>
       <c r="I284" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="J284" s="1">
         <v>-91.231274600000006</v>
@@ -15151,10 +15151,10 @@
         <v>187</v>
       </c>
       <c r="H285" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I285" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="J285" s="1">
         <v>66.653591590000005</v>
@@ -15198,10 +15198,10 @@
         <v>81</v>
       </c>
       <c r="H286" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I286" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J286" s="1">
         <v>-157.5643005</v>
@@ -15245,10 +15245,10 @@
         <v>47</v>
       </c>
       <c r="H287" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I287" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J287" s="1">
         <v>23.905178070000002</v>
@@ -15292,10 +15292,10 @@
         <v>14</v>
       </c>
       <c r="H288" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I288" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J288" s="1">
         <v>73.096725460000002</v>
@@ -15342,7 +15342,7 @@
         <v>94</v>
       </c>
       <c r="I289" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J289" s="1">
         <v>-10.33187259</v>
@@ -15386,10 +15386,10 @@
         <v>79</v>
       </c>
       <c r="H290" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I290" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J290" s="1">
         <v>160.15841169999999</v>
@@ -15433,10 +15433,10 @@
         <v>190</v>
       </c>
       <c r="H291" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I291" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="J291" s="1">
         <v>69.294998000000007</v>
@@ -15480,10 +15480,10 @@
         <v>191</v>
       </c>
       <c r="H292" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I292" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J292" s="1">
         <v>58.978766499999999</v>
@@ -15527,10 +15527,10 @@
         <v>68</v>
       </c>
       <c r="H293" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I293" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J293" s="1">
         <v>31.402708019999999</v>
@@ -15574,10 +15574,10 @@
         <v>84</v>
       </c>
       <c r="H294" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I294" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J294" s="1">
         <v>167.06797789999999</v>
@@ -15621,10 +15621,10 @@
         <v>85</v>
       </c>
       <c r="H295" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I295" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="J295" s="1">
         <v>158.22521599999999</v>
@@ -15668,10 +15668,10 @@
         <v>71</v>
       </c>
       <c r="H296" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I296" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J296" s="1">
         <v>-99.138303109999995</v>
@@ -15718,7 +15718,7 @@
         <v>94</v>
       </c>
       <c r="I297" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J297" s="1">
         <v>-5.5526900159999997</v>
@@ -15762,10 +15762,10 @@
         <v>28</v>
       </c>
       <c r="H298" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I298" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J298" s="1">
         <v>28.04940161</v>
@@ -15809,10 +15809,10 @@
         <v>188</v>
       </c>
       <c r="H299" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I299" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J299" s="1">
         <v>74.523248390000006</v>
@@ -15856,10 +15856,10 @@
         <v>24</v>
       </c>
       <c r="H300" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I300" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J300" s="1">
         <v>14.141724719999999</v>
@@ -15903,7 +15903,7 @@
         <v>147</v>
       </c>
       <c r="I301" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J301" s="1">
         <v>-78.051116629999996</v>
@@ -15944,10 +15944,10 @@
         <v>5</v>
       </c>
       <c r="H302" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I302" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="I302" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="J302" s="1">
         <v>89.176607880000006</v>
@@ -15991,7 +15991,7 @@
         <v>147</v>
       </c>
       <c r="I303" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J303" s="1">
         <v>-59.534648900000001</v>
@@ -16032,10 +16032,10 @@
         <v>25</v>
       </c>
       <c r="H304" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I304" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J304" s="1">
         <v>4.6609764560000002</v>
@@ -16079,7 +16079,7 @@
         <v>147</v>
       </c>
       <c r="I305" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J305" s="1">
         <v>-88.701995539999999</v>
@@ -16120,10 +16120,10 @@
         <v>31</v>
       </c>
       <c r="H306" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I306" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J306" s="1">
         <v>17.958745530000002</v>
@@ -16164,10 +16164,10 @@
         <v>32</v>
       </c>
       <c r="H307" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I307" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J307" s="1">
         <v>33.222859640000003</v>
@@ -16205,13 +16205,13 @@
         <v>203</v>
       </c>
       <c r="G308" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H308" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I308" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J308" s="1">
         <v>15.33151382</v>
@@ -16255,7 +16255,7 @@
         <v>94</v>
       </c>
       <c r="I309" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J309" s="1">
         <v>23.654965069999999</v>
@@ -16299,7 +16299,7 @@
         <v>147</v>
       </c>
       <c r="I310" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="J310" s="1">
         <v>-70.498475760000005</v>
@@ -16343,7 +16343,7 @@
         <v>94</v>
       </c>
       <c r="I311" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="J311" s="1">
         <v>39.635052960000003</v>
@@ -16384,10 +16384,10 @@
         <v>35</v>
       </c>
       <c r="H312" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I312" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J312" s="1">
         <v>23.308447000000001</v>
@@ -16428,10 +16428,10 @@
         <v>38</v>
       </c>
       <c r="H313" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I313" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J313" s="1">
         <v>22.583078270000001</v>
@@ -16475,7 +16475,7 @@
         <v>94</v>
       </c>
       <c r="I314" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J314" s="1">
         <v>-14.40182514</v>
@@ -16516,10 +16516,10 @@
         <v>12</v>
       </c>
       <c r="H315" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I315" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J315" s="1">
         <v>54.197663480000003</v>
@@ -16560,10 +16560,10 @@
         <v>41</v>
       </c>
       <c r="H316" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I316" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J316" s="1">
         <v>-7.1214252719999998</v>
@@ -16604,10 +16604,10 @@
         <v>42</v>
       </c>
       <c r="H317" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I317" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J317" s="1">
         <v>34.622779919999999</v>
@@ -16651,7 +16651,7 @@
         <v>94</v>
       </c>
       <c r="I318" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J318" s="1">
         <v>28.253621949999999</v>
@@ -16695,7 +16695,7 @@
         <v>94</v>
       </c>
       <c r="I319" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J319" s="1">
         <v>-9.3118790380000007</v>
@@ -16739,7 +16739,7 @@
         <v>147</v>
       </c>
       <c r="I320" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="J320" s="1">
         <v>-102.5148166</v>
@@ -16783,7 +16783,7 @@
         <v>94</v>
       </c>
       <c r="I321" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J321" s="1">
         <v>17.219078849999999</v>
@@ -16827,7 +16827,7 @@
         <v>94</v>
       </c>
       <c r="I322" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="J322" s="1">
         <v>8.0973632559999995</v>
@@ -16871,7 +16871,7 @@
         <v>147</v>
       </c>
       <c r="I323" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="J323" s="1">
         <v>-60.548542249999997</v>
@@ -16912,10 +16912,10 @@
         <v>59</v>
       </c>
       <c r="H324" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I324" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J324" s="1">
         <v>24.98481009</v>
@@ -16959,7 +16959,7 @@
         <v>94</v>
       </c>
       <c r="I325" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J325" s="1">
         <v>29.923101939999999</v>
@@ -17003,7 +17003,7 @@
         <v>147</v>
       </c>
       <c r="I326" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="J326" s="1">
         <v>-60.965295529999999</v>
@@ -17047,7 +17047,7 @@
         <v>94</v>
       </c>
       <c r="I327" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="J327" s="1">
         <v>6.6097722650000001</v>
@@ -17091,7 +17091,7 @@
         <v>94</v>
       </c>
       <c r="I328" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="J328" s="1">
         <v>55.465615909999997</v>
@@ -17132,10 +17132,10 @@
         <v>64</v>
       </c>
       <c r="H329" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I329" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J329" s="1">
         <v>14.82209486</v>
@@ -17179,7 +17179,7 @@
         <v>94</v>
       </c>
       <c r="I330" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J330" s="1">
         <v>46.203674769999999</v>
@@ -17223,7 +17223,7 @@
         <v>94</v>
       </c>
       <c r="I331" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J331" s="1">
         <v>24.671843549999998</v>
@@ -17264,10 +17264,10 @@
         <v>67</v>
       </c>
       <c r="H332" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I332" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J332" s="1">
         <v>8.2231579999999997</v>
@@ -17308,10 +17308,10 @@
         <v>90</v>
       </c>
       <c r="H333" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I333" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="J333" s="1">
         <v>-175.19599909999999</v>
@@ -17355,7 +17355,7 @@
         <v>94</v>
       </c>
       <c r="I334" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J334" s="1">
         <v>34.805211819999997</v>
@@ -17399,7 +17399,7 @@
         <v>94</v>
       </c>
       <c r="I335" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J335" s="1">
         <v>18.666184009999998</v>
@@ -17446,7 +17446,7 @@
         <v>94</v>
       </c>
       <c r="I336" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J336" s="1">
         <v>43.342345649999999</v>
@@ -17490,10 +17490,10 @@
         <v>185</v>
       </c>
       <c r="H337" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I337" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J337" s="1">
         <v>43.371361499999999</v>
@@ -17537,10 +17537,10 @@
         <v>62</v>
       </c>
       <c r="H338" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I338" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J338" s="1">
         <v>20.805876000000001</v>
@@ -17584,10 +17584,10 @@
         <v>28</v>
       </c>
       <c r="H339" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I339" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="J339" s="1">
         <v>28.04940161</v>
@@ -17634,7 +17634,7 @@
         <v>94</v>
       </c>
       <c r="I340" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J340" s="1">
         <v>-14.40182514</v>
@@ -17678,10 +17678,10 @@
         <v>16</v>
       </c>
       <c r="H341" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I341" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J341" s="1">
         <v>83.94678863</v>
@@ -17728,7 +17728,7 @@
         <v>147</v>
       </c>
       <c r="I342" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="J342" s="1">
         <v>-61.190243209999998</v>
@@ -17772,10 +17772,10 @@
         <v>93</v>
       </c>
       <c r="H343" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I343" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J343" s="1">
         <v>-172.4430749</v>
@@ -17822,7 +17822,7 @@
         <v>147</v>
       </c>
       <c r="I344" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="J344" s="1">
         <v>-55.906263940000002</v>
@@ -17866,10 +17866,10 @@
         <v>21</v>
       </c>
       <c r="H345" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I345" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="I345" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="J345" s="1">
         <v>1.5762574170000001</v>
@@ -17916,7 +17916,7 @@
         <v>94</v>
       </c>
       <c r="I346" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J346" s="1">
         <v>17.578170620000002</v>
@@ -17963,7 +17963,7 @@
         <v>94</v>
       </c>
       <c r="I347" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J347" s="1">
         <v>29.890809919999999</v>
@@ -18010,7 +18010,7 @@
         <v>94</v>
       </c>
       <c r="I348" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J348" s="1">
         <v>-5.5526900159999997</v>
@@ -18057,7 +18057,7 @@
         <v>147</v>
       </c>
       <c r="I349" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="J349" s="1">
         <v>-79.544601439999994</v>
@@ -18104,7 +18104,7 @@
         <v>147</v>
       </c>
       <c r="I350" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="J350" s="1">
         <v>-70.498475760000005</v>
@@ -18148,10 +18148,10 @@
         <v>44</v>
       </c>
       <c r="H351" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I351" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="J351" s="1">
         <v>139.27161029999999</v>
@@ -18198,7 +18198,7 @@
         <v>94</v>
       </c>
       <c r="I352" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="J352" s="1">
         <v>46.698233899999998</v>
@@ -18242,10 +18242,10 @@
         <v>52</v>
       </c>
       <c r="H353" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I353" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J353" s="1">
         <v>19.252140239999999</v>
@@ -18292,7 +18292,7 @@
         <v>94</v>
       </c>
       <c r="I354" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="J354" s="1">
         <v>38.184799409999997</v>
@@ -18336,10 +18336,10 @@
         <v>56</v>
       </c>
       <c r="H355" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I355" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J355" s="1">
         <v>19.40660158</v>
@@ -18386,7 +18386,7 @@
         <v>94</v>
       </c>
       <c r="I356" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J356" s="1">
         <v>-14.46636926</v>
@@ -18433,7 +18433,7 @@
         <v>94</v>
       </c>
       <c r="I357" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="J357" s="1">
         <v>55.465615909999997</v>
@@ -18477,10 +18477,10 @@
         <v>63</v>
       </c>
       <c r="H358" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I358" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="J358" s="1">
         <v>19.48495604</v>
@@ -18527,7 +18527,7 @@
         <v>147</v>
       </c>
       <c r="I359" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="J359" s="1">
         <v>-61.293895040000002</v>
@@ -18574,7 +18574,7 @@
         <v>94</v>
       </c>
       <c r="I360" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="J360" s="1">
         <v>29.86909584</v>
@@ -18618,10 +18618,10 @@
         <v>193</v>
       </c>
       <c r="H361" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I361" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="J361" s="1">
         <v>50.5490754</v>
@@ -18665,10 +18665,10 @@
         <v>78</v>
       </c>
       <c r="H362" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I362" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J362" s="1">
         <v>29.774685340000001</v>
@@ -18715,7 +18715,7 @@
         <v>147</v>
       </c>
       <c r="I363" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J363" s="1">
         <v>-88.868629949999999</v>
@@ -18762,7 +18762,7 @@
         <v>147</v>
       </c>
       <c r="I364" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="J364" s="1">
         <v>-72.336409579999994</v>
@@ -18806,10 +18806,10 @@
         <v>39</v>
       </c>
       <c r="H365" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I365" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J365" s="1">
         <v>19.412215190000001</v>
@@ -18853,10 +18853,10 @@
         <v>187</v>
       </c>
       <c r="H366" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I366" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="J366" s="1">
         <v>66.653591590000005</v>
@@ -18903,7 +18903,7 @@
         <v>94</v>
       </c>
       <c r="I367" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J367" s="1">
         <v>33.488462499999997</v>
@@ -18947,10 +18947,10 @@
         <v>14</v>
       </c>
       <c r="H368" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I368" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J368" s="1">
         <v>73.096725460000002</v>
@@ -18997,7 +18997,7 @@
         <v>94</v>
       </c>
       <c r="I369" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J369" s="1">
         <v>-3.5220160389999999</v>
@@ -19044,7 +19044,7 @@
         <v>147</v>
       </c>
       <c r="I370" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="J370" s="1">
         <v>-85.030603150000005</v>
@@ -19091,7 +19091,7 @@
         <v>94</v>
       </c>
       <c r="I371" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="J371" s="1">
         <v>8.0973632559999995</v>
@@ -19135,10 +19135,10 @@
         <v>69</v>
       </c>
       <c r="H372" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I372" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J372" s="1">
         <v>21.700790900000001</v>
@@ -19182,10 +19182,10 @@
         <v>51</v>
       </c>
       <c r="H373" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I373" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J373" s="1">
         <v>28.465062400000001</v>
@@ -19232,7 +19232,7 @@
         <v>94</v>
       </c>
       <c r="I374" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J374" s="1">
         <v>0.97835764999999997</v>
@@ -19276,10 +19276,10 @@
         <v>77</v>
       </c>
       <c r="H375" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I375" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J375" s="1">
         <v>9.5727374110000003</v>
@@ -19323,10 +19323,10 @@
         <v>81</v>
       </c>
       <c r="H376" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I376" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J376" s="1">
         <v>-157.5643005</v>
@@ -19370,10 +19370,10 @@
         <v>87</v>
       </c>
       <c r="H377" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I377" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J377" s="1">
         <v>171.0839119</v>
@@ -19417,10 +19417,10 @@
         <v>85</v>
       </c>
       <c r="H378" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I378" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="J378" s="1">
         <v>158.22521599999999</v>
@@ -19464,10 +19464,10 @@
         <v>92</v>
       </c>
       <c r="H379" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I379" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J379" s="1">
         <v>178.66796110000001</v>
@@ -19511,10 +19511,10 @@
         <v>84</v>
       </c>
       <c r="H380" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I380" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J380" s="1">
         <v>167.06797789999999</v>
@@ -19558,10 +19558,10 @@
         <v>1</v>
       </c>
       <c r="H381" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I381" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J381" s="1">
         <v>66.026881979999999</v>
@@ -19608,7 +19608,7 @@
         <v>147</v>
       </c>
       <c r="I382" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J382" s="1">
         <v>-61.349375600000002</v>
@@ -19652,10 +19652,10 @@
         <v>194</v>
       </c>
       <c r="H383" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I383" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J383" s="1">
         <v>35.256941220000002</v>
@@ -19702,7 +19702,7 @@
         <v>147</v>
       </c>
       <c r="I384" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="J384" s="1">
         <v>-62.766286129999997</v>
@@ -19749,7 +19749,7 @@
         <v>147</v>
       </c>
       <c r="I385" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J385" s="1">
         <v>-59.534648900000001</v>
@@ -19796,7 +19796,7 @@
         <v>147</v>
       </c>
       <c r="I386" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="J386" s="1">
         <v>-64.662242840000005</v>
@@ -19843,7 +19843,7 @@
         <v>94</v>
       </c>
       <c r="I387" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J387" s="1">
         <v>12.741982699999999</v>
@@ -19890,7 +19890,7 @@
         <v>147</v>
       </c>
       <c r="I388" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="J388" s="1">
         <v>-91.231274600000006</v>
@@ -19937,7 +19937,7 @@
         <v>147</v>
       </c>
       <c r="I389" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="J389" s="1">
         <v>-77.310684089999995</v>
@@ -19981,10 +19981,10 @@
         <v>192</v>
       </c>
       <c r="H390" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I390" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J390" s="1">
         <v>63.119445579999997</v>
@@ -20028,10 +20028,10 @@
         <v>184</v>
       </c>
       <c r="H391" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I391" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="J391" s="1">
         <v>44.938393169999998</v>
@@ -20078,7 +20078,7 @@
         <v>94</v>
       </c>
       <c r="I392" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J392" s="1">
         <v>-23.63544151</v>
@@ -20125,7 +20125,7 @@
         <v>94</v>
       </c>
       <c r="I393" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="J393" s="1">
         <v>42.182747069999998</v>
@@ -20172,7 +20172,7 @@
         <v>147</v>
       </c>
       <c r="I394" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="J394" s="1">
         <v>-78.37005241</v>
@@ -20216,10 +20216,10 @@
         <v>80</v>
       </c>
       <c r="H395" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I395" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="I395" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="J395" s="1">
         <v>177.96608839999999</v>
@@ -20266,7 +20266,7 @@
         <v>94</v>
       </c>
       <c r="I396" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="J396" s="1">
         <v>-15.39944785</v>
@@ -20313,7 +20313,7 @@
         <v>94</v>
       </c>
       <c r="I397" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J397" s="1">
         <v>-1.205623522</v>
@@ -20360,7 +20360,7 @@
         <v>94</v>
       </c>
       <c r="I398" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J398" s="1">
         <v>-11.28173419</v>
@@ -20404,10 +20404,10 @@
         <v>188</v>
       </c>
       <c r="H399" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I399" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J399" s="1">
         <v>74.523248390000006</v>
@@ -20454,7 +20454,7 @@
         <v>94</v>
       </c>
       <c r="I400" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J400" s="1">
         <v>-9.3118790380000007</v>
@@ -20501,7 +20501,7 @@
         <v>94</v>
       </c>
       <c r="I401" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J401" s="1">
         <v>-10.33187259</v>
@@ -20545,10 +20545,10 @@
         <v>60</v>
       </c>
       <c r="H402" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I402" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J402" s="1">
         <v>99.014049259999993</v>
@@ -20595,7 +20595,7 @@
         <v>94</v>
       </c>
       <c r="I403" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J403" s="1">
         <v>-11.783065840000001</v>
@@ -20639,10 +20639,10 @@
         <v>79</v>
       </c>
       <c r="H404" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I404" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J404" s="1">
         <v>160.15841169999999</v>
@@ -20686,10 +20686,10 @@
         <v>190</v>
       </c>
       <c r="H405" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I405" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="J405" s="1">
         <v>69.294998000000007</v>
@@ -20733,10 +20733,10 @@
         <v>191</v>
       </c>
       <c r="H406" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I406" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J406" s="1">
         <v>58.978766499999999</v>
@@ -20783,7 +20783,7 @@
         <v>94</v>
       </c>
       <c r="I407" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J407" s="1">
         <v>11.787277469999999</v>
@@ -20827,10 +20827,10 @@
         <v>89</v>
       </c>
       <c r="H408" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I408" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J408" s="1">
         <v>145.8587761</v>
@@ -20877,7 +20877,7 @@
         <v>147</v>
       </c>
       <c r="I409" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="J409" s="1">
         <v>-61.799975500000002</v>
@@ -20924,7 +20924,7 @@
         <v>94</v>
       </c>
       <c r="I410" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J410" s="1">
         <v>10.46535826</v>
@@ -20968,10 +20968,10 @@
         <v>20</v>
       </c>
       <c r="H411" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I411" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J411" s="1">
         <v>20.066609280000002</v>
@@ -21012,10 +21012,10 @@
         <v>73</v>
       </c>
       <c r="H412" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I412" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J412" s="1">
         <v>2.6781642269999999</v>
@@ -21059,7 +21059,7 @@
         <v>147</v>
       </c>
       <c r="I413" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J413" s="1">
         <v>-65.145632739999996</v>
@@ -21100,10 +21100,10 @@
         <v>23</v>
       </c>
       <c r="H414" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I414" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="J414" s="1">
         <v>134.34994119999999</v>
@@ -21144,10 +21144,10 @@
         <v>24</v>
       </c>
       <c r="H415" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I415" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J415" s="1">
         <v>14.141724719999999</v>
@@ -21188,10 +21188,10 @@
         <v>183</v>
       </c>
       <c r="H416" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I416" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="J416" s="1">
         <v>50.010647249999998</v>
@@ -21235,7 +21235,7 @@
         <v>147</v>
       </c>
       <c r="I417" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J417" s="1">
         <v>-78.051116629999996</v>
@@ -21276,10 +21276,10 @@
         <v>5</v>
       </c>
       <c r="H418" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I418" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="I418" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="J418" s="1">
         <v>89.176607880000006</v>
@@ -21320,10 +21320,10 @@
         <v>25</v>
       </c>
       <c r="H419" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I419" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J419" s="1">
         <v>4.6609764560000002</v>
@@ -21367,7 +21367,7 @@
         <v>147</v>
       </c>
       <c r="I420" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J420" s="1">
         <v>-88.701995539999999</v>
@@ -21411,7 +21411,7 @@
         <v>94</v>
       </c>
       <c r="I421" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J421" s="1">
         <v>2.3399335940000001</v>
@@ -21452,10 +21452,10 @@
         <v>7</v>
       </c>
       <c r="H422" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I422" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J422" s="1">
         <v>90.450984840000004</v>
@@ -21496,10 +21496,10 @@
         <v>26</v>
       </c>
       <c r="H423" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I423" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J423" s="1">
         <v>17.785843320000001</v>
@@ -21543,7 +21543,7 @@
         <v>94</v>
       </c>
       <c r="I424" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J424" s="1">
         <v>23.81380223</v>
@@ -21587,7 +21587,7 @@
         <v>147</v>
       </c>
       <c r="I425" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J425" s="1">
         <v>-53.08432878</v>
@@ -21628,10 +21628,10 @@
         <v>27</v>
       </c>
       <c r="H426" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I426" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J426" s="1">
         <v>25.237631530000002</v>
@@ -21675,7 +21675,7 @@
         <v>94</v>
       </c>
       <c r="I427" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J427" s="1">
         <v>-1.7428438289999999</v>
@@ -21716,10 +21716,10 @@
         <v>30</v>
       </c>
       <c r="H428" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I428" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J428" s="1">
         <v>-101.6575058</v>
@@ -21763,7 +21763,7 @@
         <v>94</v>
       </c>
       <c r="I429" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="J429" s="1">
         <v>20.93559492</v>
@@ -21807,7 +21807,7 @@
         <v>147</v>
       </c>
       <c r="I430" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J430" s="1">
         <v>-71.230290190000005</v>
@@ -21851,7 +21851,7 @@
         <v>147</v>
       </c>
       <c r="I431" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="J431" s="1">
         <v>-73.074467510000005</v>
@@ -21895,7 +21895,7 @@
         <v>94</v>
       </c>
       <c r="I432" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J432" s="1">
         <v>15.220526120000001</v>
@@ -21939,7 +21939,7 @@
         <v>147</v>
       </c>
       <c r="I433" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J433" s="1">
         <v>-84.197127820000006</v>
@@ -21980,10 +21980,10 @@
         <v>31</v>
       </c>
       <c r="H434" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I434" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J434" s="1">
         <v>17.958745530000002</v>
@@ -22024,10 +22024,10 @@
         <v>32</v>
       </c>
       <c r="H435" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I435" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J435" s="1">
         <v>33.222859640000003</v>
@@ -22065,13 +22065,13 @@
         <v>203</v>
       </c>
       <c r="G436" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H436" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I436" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J436" s="1">
         <v>15.33151382</v>
@@ -22115,7 +22115,7 @@
         <v>94</v>
       </c>
       <c r="I437" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J437" s="1">
         <v>23.654965069999999</v>
@@ -22156,10 +22156,10 @@
         <v>33</v>
       </c>
       <c r="H438" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I438" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J438" s="1">
         <v>9.3265712829999998</v>
@@ -22203,7 +22203,7 @@
         <v>94</v>
       </c>
       <c r="I439" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J439" s="1">
         <v>38.110742889999997</v>
@@ -22244,10 +22244,10 @@
         <v>34</v>
       </c>
       <c r="H440" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I440" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J440" s="1">
         <v>25.84093481</v>
@@ -22285,13 +22285,13 @@
         <v>748</v>
       </c>
       <c r="G441" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H441" s="1" t="s">
         <v>94</v>
       </c>
       <c r="I441" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J441" s="1">
         <v>31.501492880000001</v>
@@ -22335,7 +22335,7 @@
         <v>94</v>
       </c>
       <c r="I442" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="J442" s="1">
         <v>39.635052960000003</v>
@@ -22376,10 +22376,10 @@
         <v>35</v>
       </c>
       <c r="H443" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I443" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J443" s="1">
         <v>23.308447000000001</v>
@@ -22420,10 +22420,10 @@
         <v>36</v>
       </c>
       <c r="H444" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I444" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J444" s="1">
         <v>2.4572881290000002</v>
@@ -22464,10 +22464,10 @@
         <v>37</v>
       </c>
       <c r="H445" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I445" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="J445" s="1">
         <v>10.3806066</v>
@@ -22508,10 +22508,10 @@
         <v>38</v>
       </c>
       <c r="H446" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I446" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J446" s="1">
         <v>22.583078270000001</v>
@@ -22555,7 +22555,7 @@
         <v>147</v>
       </c>
       <c r="I447" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="J447" s="1">
         <v>-61.682485679999999</v>
@@ -22599,7 +22599,7 @@
         <v>147</v>
       </c>
       <c r="I448" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="J448" s="1">
         <v>-58.97322037</v>
@@ -22643,7 +22643,7 @@
         <v>147</v>
       </c>
       <c r="I449" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J449" s="1">
         <v>-86.599743810000007</v>
@@ -22684,10 +22684,10 @@
         <v>40</v>
       </c>
       <c r="H450" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I450" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J450" s="1">
         <v>-19.021169660000002</v>
@@ -22728,10 +22728,10 @@
         <v>11</v>
       </c>
       <c r="H451" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I451" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J451" s="1">
         <v>79.3608464</v>
@@ -22772,10 +22772,10 @@
         <v>12</v>
       </c>
       <c r="H452" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I452" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J452" s="1">
         <v>54.197663480000003</v>
@@ -22816,10 +22816,10 @@
         <v>41</v>
       </c>
       <c r="H453" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I453" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J453" s="1">
         <v>-7.1214252719999998</v>
@@ -22860,10 +22860,10 @@
         <v>42</v>
       </c>
       <c r="H454" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I454" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J454" s="1">
         <v>34.622779919999999</v>
@@ -22904,10 +22904,10 @@
         <v>43</v>
       </c>
       <c r="H455" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I455" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J455" s="1">
         <v>12.570224270000001</v>
@@ -22951,7 +22951,7 @@
         <v>94</v>
       </c>
       <c r="I456" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="J456" s="1">
         <v>37.860968159999999</v>
@@ -22992,10 +22992,10 @@
         <v>45</v>
       </c>
       <c r="H457" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I457" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J457" s="1">
         <v>26.424618760000001</v>
@@ -23039,7 +23039,7 @@
         <v>94</v>
       </c>
       <c r="I458" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J458" s="1">
         <v>28.253621949999999</v>
@@ -23080,10 +23080,10 @@
         <v>74</v>
       </c>
       <c r="H459" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I459" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J459" s="1">
         <v>18.029598499999999</v>
@@ -23124,10 +23124,10 @@
         <v>46</v>
       </c>
       <c r="H460" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I460" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="J460" s="1">
         <v>9.5529850189999994</v>
@@ -23168,10 +23168,10 @@
         <v>47</v>
       </c>
       <c r="H461" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I461" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J461" s="1">
         <v>23.905178070000002</v>
@@ -23212,10 +23212,10 @@
         <v>48</v>
       </c>
       <c r="H462" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I462" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J462" s="1">
         <v>6.0926565630000002</v>
@@ -23256,10 +23256,10 @@
         <v>49</v>
       </c>
       <c r="H463" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I463" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J463" s="1">
         <v>14.44617519</v>
@@ -23303,7 +23303,7 @@
         <v>94</v>
       </c>
       <c r="I464" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J464" s="1">
         <v>57.568021999999999</v>
@@ -23347,7 +23347,7 @@
         <v>147</v>
       </c>
       <c r="I465" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="J465" s="1">
         <v>-102.5148166</v>
@@ -23388,10 +23388,10 @@
         <v>50</v>
       </c>
       <c r="H466" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I466" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J466" s="1">
         <v>7.4242148139999999</v>
@@ -23432,10 +23432,10 @@
         <v>76</v>
       </c>
       <c r="H467" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I467" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J467" s="1">
         <v>-6.2819428410000002</v>
@@ -23479,7 +23479,7 @@
         <v>94</v>
       </c>
       <c r="I468" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J468" s="1">
         <v>17.219078849999999</v>
@@ -23520,10 +23520,10 @@
         <v>83</v>
       </c>
       <c r="H469" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I469" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J469" s="1">
         <v>166.92312999999999</v>
@@ -23564,10 +23564,10 @@
         <v>53</v>
       </c>
       <c r="H470" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I470" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J470" s="1">
         <v>5.3314805679999999</v>
@@ -23608,10 +23608,10 @@
         <v>54</v>
       </c>
       <c r="H471" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I471" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J471" s="1">
         <v>170.47556729999999</v>
@@ -23655,7 +23655,7 @@
         <v>94</v>
       </c>
       <c r="I472" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J472" s="1">
         <v>9.4001678769999995</v>
@@ -23696,10 +23696,10 @@
         <v>55</v>
       </c>
       <c r="H473" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I473" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J473" s="1">
         <v>11.47846389</v>
@@ -23740,10 +23740,10 @@
         <v>18</v>
       </c>
       <c r="H474" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I474" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J474" s="1">
         <v>68.804796839999995</v>
@@ -23784,10 +23784,10 @@
         <v>88</v>
       </c>
       <c r="H475" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I475" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J475" s="1">
         <v>134.57338780000001</v>
@@ -23831,7 +23831,7 @@
         <v>147</v>
       </c>
       <c r="I476" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="J476" s="1">
         <v>-81.266166229999996</v>
@@ -23875,7 +23875,7 @@
         <v>147</v>
       </c>
       <c r="I477" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="J477" s="1">
         <v>-60.548542249999997</v>
@@ -23919,7 +23919,7 @@
         <v>147</v>
       </c>
       <c r="I478" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J478" s="1">
         <v>-71.820932769999999</v>
@@ -23960,10 +23960,10 @@
         <v>57</v>
       </c>
       <c r="H479" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I479" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="J479" s="1">
         <v>-7.9615998110000001</v>
@@ -24004,10 +24004,10 @@
         <v>59</v>
       </c>
       <c r="H480" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I480" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J480" s="1">
         <v>24.98481009</v>
@@ -24051,7 +24051,7 @@
         <v>94</v>
       </c>
       <c r="I481" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J481" s="1">
         <v>29.923101939999999</v>
@@ -24095,7 +24095,7 @@
         <v>147</v>
       </c>
       <c r="I482" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="J482" s="1">
         <v>-60.965295529999999</v>
@@ -24136,10 +24136,10 @@
         <v>61</v>
       </c>
       <c r="H483" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I483" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J483" s="1">
         <v>12.46329038</v>
@@ -24183,7 +24183,7 @@
         <v>94</v>
       </c>
       <c r="I484" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="J484" s="1">
         <v>6.6097722650000001</v>
@@ -24224,10 +24224,10 @@
         <v>64</v>
       </c>
       <c r="H485" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I485" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J485" s="1">
         <v>14.82209486</v>
@@ -24271,7 +24271,7 @@
         <v>94</v>
       </c>
       <c r="I486" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J486" s="1">
         <v>46.203674769999999</v>
@@ -24315,7 +24315,7 @@
         <v>94</v>
       </c>
       <c r="I487" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J487" s="1">
         <v>24.671843549999998</v>
@@ -24356,10 +24356,10 @@
         <v>65</v>
       </c>
       <c r="H488" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I488" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J488" s="1">
         <v>-3.5540782960000001</v>
@@ -24400,10 +24400,10 @@
         <v>9</v>
       </c>
       <c r="H489" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I489" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J489" s="1">
         <v>80.704896539999993</v>
@@ -24444,10 +24444,10 @@
         <v>141</v>
       </c>
       <c r="H490" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I490" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J490" s="1">
         <v>29.956501589999998</v>
@@ -24488,10 +24488,10 @@
         <v>66</v>
       </c>
       <c r="H491" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I491" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J491" s="1">
         <v>14.3775338</v>
@@ -24532,10 +24532,10 @@
         <v>67</v>
       </c>
       <c r="H492" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I492" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J492" s="1">
         <v>8.2231579999999997</v>
@@ -24576,10 +24576,10 @@
         <v>90</v>
       </c>
       <c r="H493" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I493" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="J493" s="1">
         <v>-175.19599909999999</v>
@@ -24623,7 +24623,7 @@
         <v>94</v>
       </c>
       <c r="I494" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J494" s="1">
         <v>32.391004379999998</v>
@@ -24664,10 +24664,10 @@
         <v>68</v>
       </c>
       <c r="H495" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I495" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J495" s="1">
         <v>31.402708019999999</v>
@@ -24708,10 +24708,10 @@
         <v>70</v>
       </c>
       <c r="H496" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I496" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J496" s="1">
         <v>-2.2383053899999998</v>
@@ -24755,7 +24755,7 @@
         <v>94</v>
       </c>
       <c r="I497" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J497" s="1">
         <v>34.805211819999997</v>
@@ -24796,10 +24796,10 @@
         <v>71</v>
       </c>
       <c r="H498" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I498" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J498" s="1">
         <v>-99.138303109999995</v>
@@ -24843,7 +24843,7 @@
         <v>147</v>
       </c>
       <c r="I499" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="J499" s="1">
         <v>-56.013870249999997</v>
@@ -24887,7 +24887,7 @@
         <v>147</v>
       </c>
       <c r="I500" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="J500" s="1">
         <v>-66.156420839999996</v>
@@ -24931,7 +24931,7 @@
         <v>94</v>
       </c>
       <c r="I501" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J501" s="1">
         <v>27.850328999999999</v>
@@ -24965,6 +24965,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <File xmlns="3d137487-0b15-4ad9-abee-bf6b36a5a6e0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B1636FD24704A1439BC275B3C3F1C9C6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96691d2a4c347ae1a5dfc0cee8216ec1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3d137487-0b15-4ad9-abee-bf6b36a5a6e0" xmlns:ns3="81cf108f-c583-47b3-8493-b6de3c823d22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f18913b399a1948fbd1deaf24005938" ns2:_="" ns3:_="">
     <xsd:import namespace="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
@@ -25187,14 +25195,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <File xmlns="3d137487-0b15-4ad9-abee-bf6b36a5a6e0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -25205,6 +25205,16 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6EC37709-AB5F-438D-AD49-9E7A5E7983FF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{546C45F1-E491-41ED-A256-AA78FEFCBF09}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25223,16 +25233,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6EC37709-AB5F-438D-AD49-9E7A5E7983FF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E927619D-F93D-4B27-89B7-A96B5FBEBA0E}">
   <ds:schemaRefs>
